--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T10:00:26+00:00</t>
+    <t>2025-09-10T13:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T13:51:57+00:00</t>
+    <t>2025-09-11T08:12:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-11T08:12:08+00:00</t>
+    <t>2025-09-11T09:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-11T09:46:41+00:00</t>
+    <t>2025-09-15T07:08:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T07:08:09+00:00</t>
+    <t>2025-09-17T15:38:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T15:38:22+00:00</t>
+    <t>2025-09-18T09:40:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T09:40:01+00:00</t>
+    <t>2025-09-18T12:48:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T12:48:58+00:00</t>
+    <t>2025-09-18T14:47:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T14:47:30+00:00</t>
+    <t>2025-09-23T09:18:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="143">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T09:18:22+00:00</t>
+    <t>2025-09-23T12:45:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -406,6 +406,10 @@
     <t>Détail des ressources matérielles (ex: matériel médical, pédagogique)</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}MatDetailOnlyIfTypeOrg206:TDDUIMaterialDetail ne doit être utilisé que si TDDUIRessourceType vaut ORG-206 ou n'est pas renseigné. {extension('TDDUIRessourceType').empty() or extension('TDDUIRessourceType').value.coding.code = 'ORG-206'}</t>
+  </si>
+  <si>
     <t>Extension.extension:TDDUIMaterialDetail.id</t>
   </si>
   <si>
@@ -428,6 +432,10 @@
   </si>
   <si>
     <t>Détail des ressources immobilières (ex: bâtiment, salle, chambre)</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}FacilityOnlyIfTypeOrg207:TDDUIFacilityResource ne doit être utilisé que si TDDUIRessourceType vaut ORG-207 ou n'est pas renseigné. {extension('TDDUIRessourceType').empty() or extension('TDDUIRessourceType').value.coding.code = 'ORG-207'}</t>
   </si>
   <si>
     <t>Extension.extension:TDDUIFacilityResource.id</t>
@@ -1248,7 +1256,7 @@
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>76</v>
@@ -1846,7 +1854,7 @@
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -1854,7 +1862,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>104</v>
@@ -1957,7 +1965,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>106</v>
@@ -2060,7 +2068,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>108</v>
@@ -2165,7 +2173,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>116</v>
@@ -2228,7 +2236,7 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -2266,13 +2274,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>89</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>76</v>
@@ -2297,7 +2305,7 @@
         <v>91</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>102</v>
@@ -2363,7 +2371,7 @@
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
@@ -2371,7 +2379,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>104</v>
@@ -2474,7 +2482,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>106</v>
@@ -2577,7 +2585,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>108</v>
@@ -2620,7 +2628,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>76</v>
@@ -2682,7 +2690,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>116</v>
@@ -2745,7 +2753,7 @@
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
@@ -2914,7 +2922,7 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>118</v>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:45:16+00:00</t>
+    <t>2025-09-23T13:40:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:40:00+00:00</t>
+    <t>2025-09-24T08:59:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -407,7 +407,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}MatDetailOnlyIfTypeOrg206:TDDUIMaterialDetail ne doit être utilisé que si TDDUIRessourceType vaut ORG-206 ou n'est pas renseigné. {extension('TDDUIRessourceType').empty() or extension('TDDUIRessourceType').value.coding.code = 'ORG-206'}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}MatDetailOnlyIfTypeOrg206:TDDUIMaterialDetail ne doit être utilisé que si TDDUIRessourceType vaut ORG-206 ou n'est pas renseigné. {(extension('TDDUIMaterialDetail').exists() = (extension('TDDUIRessourceType').empty() or extension('TDDUIRessourceType').value.coding.code = 'ORG-206'))}</t>
   </si>
   <si>
     <t>Extension.extension:TDDUIMaterialDetail.id</t>
@@ -435,7 +435,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}FacilityOnlyIfTypeOrg207:TDDUIFacilityResource ne doit être utilisé que si TDDUIRessourceType vaut ORG-207 ou n'est pas renseigné. {extension('TDDUIRessourceType').empty() or extension('TDDUIRessourceType').value.coding.code = 'ORG-207'}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}FacilityOnlyIfTypeOrg207:TDDUIFacilityResource ne doit être utilisé que si TDDUIRessourceType vaut ORG-207 ou n'est pas renseigné. {(extension('TDDUIFacilityResource').exists() = (extension('TDDUIRessourceType').empty() or extension('TDDUIRessourceType').value.coding.code = 'ORG-207'))}</t>
   </si>
   <si>
     <t>Extension.extension:TDDUIFacilityResource.id</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T08:59:11+00:00</t>
+    <t>2025-09-24T09:13:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="141">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:13:07+00:00</t>
+    <t>2025-09-25T09:59:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -406,10 +406,6 @@
     <t>Détail des ressources matérielles (ex: matériel médical, pédagogique)</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}MatDetailOnlyIfTypeOrg206:TDDUIMaterialDetail ne doit être utilisé que si TDDUIRessourceType vaut ORG-206 ou n'est pas renseigné. {(extension('TDDUIMaterialDetail').exists() = (extension('TDDUIRessourceType').empty() or extension('TDDUIRessourceType').value.coding.code = 'ORG-206'))}</t>
-  </si>
-  <si>
     <t>Extension.extension:TDDUIMaterialDetail.id</t>
   </si>
   <si>
@@ -432,10 +428,6 @@
   </si>
   <si>
     <t>Détail des ressources immobilières (ex: bâtiment, salle, chambre)</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}FacilityOnlyIfTypeOrg207:TDDUIFacilityResource ne doit être utilisé que si TDDUIRessourceType vaut ORG-207 ou n'est pas renseigné. {(extension('TDDUIFacilityResource').exists() = (extension('TDDUIRessourceType').empty() or extension('TDDUIRessourceType').value.coding.code = 'ORG-207'))}</t>
   </si>
   <si>
     <t>Extension.extension:TDDUIFacilityResource.id</t>
@@ -1854,7 +1846,7 @@
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -1862,7 +1854,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>104</v>
@@ -1965,7 +1957,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>106</v>
@@ -2068,7 +2060,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>108</v>
@@ -2173,7 +2165,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>116</v>
@@ -2236,7 +2228,7 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
@@ -2274,13 +2266,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>89</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>76</v>
@@ -2305,7 +2297,7 @@
         <v>91</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>102</v>
@@ -2371,7 +2363,7 @@
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
@@ -2379,7 +2371,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>104</v>
@@ -2482,7 +2474,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>106</v>
@@ -2585,7 +2577,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>108</v>
@@ -2628,7 +2620,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>76</v>
@@ -2690,7 +2682,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>116</v>
@@ -2753,7 +2745,7 @@
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
@@ -2922,7 +2914,7 @@
         <v>76</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>118</v>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:00+00:00</t>
+    <t>2025-09-29T14:54:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T14:54:43+00:00</t>
+    <t>2025-09-30T08:07:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T08:07:48+00:00</t>
+    <t>2025-09-30T16:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -325,7 +325,7 @@
     <t>TDDUIRessourceType</t>
   </si>
   <si>
-    <t>Type de ressources utilisées dans le cadre de l’évènement (matériel, immobilier, véhicule).</t>
+    <t>Type de ressources utilisées dans le cadre de l’évènement.</t>
   </si>
   <si>
     <t>An Extension</t>
@@ -403,7 +403,7 @@
     <t>TDDUIMaterialDetail</t>
   </si>
   <si>
-    <t>Détail des ressources matérielles (ex: matériel médical, pédagogique)</t>
+    <t>Détail des ressources matérielles.</t>
   </si>
   <si>
     <t>Extension.extension:TDDUIMaterialDetail.id</t>
@@ -427,7 +427,7 @@
     <t>TDDUIFacilityResource</t>
   </si>
   <si>
-    <t>Détail des ressources immobilières (ex: bâtiment, salle, chambre)</t>
+    <t>Détail des ressources immobilières.</t>
   </si>
   <si>
     <t>Extension.extension:TDDUIFacilityResource.id</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T16:47:22+00:00</t>
+    <t>2025-10-01T14:45:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T14:45:31+00:00</t>
+    <t>2025-10-02T09:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:38:01+00:00</t>
+    <t>2025-10-02T12:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:26:13+00:00</t>
+    <t>2025-10-07T14:58:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T14:58:06+00:00</t>
+    <t>2025-10-08T14:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:59:36+00:00</t>
+    <t>2025-10-10T14:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-10T14:52:44+00:00</t>
+    <t>2025-10-14T09:28:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-ressources-used.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-14T09:28:59+00:00</t>
+    <t>2025-10-15T10:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
